--- a/uploads/Template_Produtos_Mpozenato_CADASTRO_A&B Design.xlsx
+++ b/uploads/Template_Produtos_Mpozenato_CADASTRO_A&B Design.xlsx
@@ -27747,12 +27747,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -27787,12 +27787,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -27827,12 +27827,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -27867,12 +27867,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -27907,12 +27907,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -27947,12 +27947,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -27987,12 +27987,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -28027,12 +28027,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -28067,12 +28067,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -28107,12 +28107,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -28147,12 +28147,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -28187,12 +28187,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -28227,12 +28227,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -28267,12 +28267,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -28307,12 +28307,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -28347,12 +28347,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -28387,12 +28387,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -28427,12 +28427,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -28467,12 +28467,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -28507,12 +28507,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -28547,12 +28547,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -28587,12 +28587,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -28627,12 +28627,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -28667,12 +28667,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -28707,12 +28707,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -28747,12 +28747,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -28787,12 +28787,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -28827,12 +28827,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -28867,12 +28867,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -28907,12 +28907,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -28947,12 +28947,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -28987,12 +28987,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -29027,12 +29027,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -29067,12 +29067,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -29107,12 +29107,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -29147,12 +29147,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -29187,12 +29187,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -29227,12 +29227,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -29267,12 +29267,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -29307,12 +29307,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -29347,12 +29347,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -29387,12 +29387,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -29427,12 +29427,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -29467,12 +29467,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -29507,12 +29507,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -29547,12 +29547,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -29587,12 +29587,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -29627,12 +29627,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -29667,12 +29667,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -29707,12 +29707,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -29747,12 +29747,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -29787,12 +29787,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -29827,12 +29827,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -29867,12 +29867,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -29907,12 +29907,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -29947,12 +29947,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -29987,12 +29987,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -30027,12 +30027,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -30067,12 +30067,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -30107,12 +30107,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -30147,12 +30147,12 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -30187,12 +30187,12 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -30227,12 +30227,12 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -30267,12 +30267,12 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -30307,12 +30307,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -30347,12 +30347,12 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -30387,12 +30387,12 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -30427,12 +30427,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -30467,12 +30467,12 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -30507,12 +30507,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -30547,12 +30547,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -30587,12 +30587,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -30627,12 +30627,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -30667,12 +30667,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -30707,12 +30707,12 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -30747,12 +30747,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -30787,12 +30787,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -30827,12 +30827,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -30867,12 +30867,12 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -30907,12 +30907,12 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -30947,12 +30947,12 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -30987,12 +30987,12 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -31027,12 +31027,12 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -31067,12 +31067,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -31107,12 +31107,12 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -31147,12 +31147,12 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -31187,12 +31187,12 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -31227,12 +31227,12 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -31267,12 +31267,12 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -31307,12 +31307,12 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -31347,12 +31347,12 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -31387,12 +31387,12 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -31427,12 +31427,12 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -31467,12 +31467,12 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -31507,12 +31507,12 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -31547,12 +31547,12 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -31587,12 +31587,12 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -31627,12 +31627,12 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -31667,12 +31667,12 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -31707,12 +31707,12 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -31747,12 +31747,12 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -31787,12 +31787,12 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -31827,12 +31827,12 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -31867,12 +31867,12 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -31907,12 +31907,12 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -31947,12 +31947,12 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -31987,12 +31987,12 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -32027,12 +32027,12 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>13/08/2055</t>
+          <t>14/08/2055</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
